--- a/R/analysis/data/Pt_05_Experimental.xlsx
+++ b/R/analysis/data/Pt_05_Experimental.xlsx
@@ -521,10 +521,10 @@
         <v>3.83</v>
       </c>
       <c r="M2" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>0.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>2.06</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.75</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>0.82</v>
@@ -635,16 +635,16 @@
         <v>0.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>0.76</v>
       </c>
       <c r="L4" t="n">
-        <v>1.04</v>
+        <v>3.29</v>
       </c>
       <c r="M4" t="n">
-        <v>2.12</v>
+        <v>1.41</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0.71</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.3</v>
+        <v>0.55</v>
       </c>
       <c r="N6" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -815,16 +815,16 @@
         <v>0.84</v>
       </c>
       <c r="K7" t="n">
-        <v>4.48</v>
+        <v>1.18</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.84</v>
+        <v>3.16</v>
       </c>
       <c r="M7" t="n">
-        <v>1.91</v>
+        <v>0.07</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.15</v>
+        <v>1.55</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>1.73</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.26</v>
@@ -989,10 +989,10 @@
         <v>0.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4.16</v>
+        <v>0.79</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.56</v>
+        <v>2.94</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
@@ -1053,10 +1053,10 @@
         <v>3.33</v>
       </c>
       <c r="M11" t="n">
-        <v>4.95</v>
+        <v>2.12</v>
       </c>
       <c r="N11" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0.87</v>
       </c>
       <c r="K12" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>-1.6</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0.58</v>
@@ -1167,16 +1167,16 @@
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.49</v>
+        <v>0.94</v>
       </c>
       <c r="L13" t="n">
-        <v>0.86</v>
+        <v>2.66</v>
       </c>
       <c r="M13" t="n">
-        <v>1.29</v>
+        <v>0.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.42</v>
+        <v>3.42</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0.46</v>
@@ -1288,7 +1288,7 @@
         <v>1.53</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.34</v>
@@ -1345,16 +1345,16 @@
         <v>0.88</v>
       </c>
       <c r="K16" t="n">
-        <v>3.77</v>
+        <v>0.47</v>
       </c>
       <c r="L16" t="n">
-        <v>0.33</v>
+        <v>2.66</v>
       </c>
       <c r="M16" t="n">
-        <v>2.4</v>
+        <v>0.99</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
         <v>0.18</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0.35</v>
@@ -1468,7 +1468,7 @@
         <v>0.71</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.52</v>
@@ -1525,16 +1525,16 @@
         <v>0.95</v>
       </c>
       <c r="K19" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="M19" t="n">
-        <v>2.47</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>1.53</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M21" t="n">
         <v>0.84</v>
@@ -1701,10 +1701,10 @@
         <v>0.61</v>
       </c>
       <c r="K22" t="n">
-        <v>4.63</v>
+        <v>0.86</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6</v>
+        <v>3.28</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1818,7 +1818,7 @@
         <v>0.71</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M24" t="n">
         <v>0.89</v>
@@ -1873,10 +1873,10 @@
         <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>4.68</v>
+        <v>0.27</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.19</v>
+        <v>3.31</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1990,7 +1990,7 @@
         <v>1.53</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M27" t="n">
         <v>1.3</v>
@@ -2045,10 +2045,10 @@
         <v>0.48</v>
       </c>
       <c r="K28" t="n">
-        <v>4.54</v>
+        <v>0.76</v>
       </c>
       <c r="L28" t="n">
-        <v>0.54</v>
+        <v>3.21</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
